--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44209</v>
+        <v>44217</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O2" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>821</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44217</v>
+        <v>44209</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O3" t="n">
         <v>11000</v>
       </c>
-      <c r="O3" t="n">
-        <v>12000</v>
-      </c>
       <c r="P3" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>821</v>
+        <v>750</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Pomelo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Pomelo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44217</v>
+        <v>44209</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O2" t="n">
         <v>11000</v>
       </c>
-      <c r="O2" t="n">
-        <v>12000</v>
-      </c>
       <c r="P2" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>821</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44209</v>
+        <v>44217</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>750</v>
+        <v>821</v>
       </c>
       <c r="T3" t="n">
         <v>14</v>
